--- a/HOBO_Data/HOBO_temp_light_logger_names.xlsx
+++ b/HOBO_Data/HOBO_temp_light_logger_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\HOBO_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E7E42A-E70C-4B5A-94F7-3AF618C65FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCDF13-4B38-4078-91D1-63882FBEDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{340E5485-1E08-4E89-9AC4-08CB38BC84BE}"/>
+    <workbookView xWindow="405" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{340E5485-1E08-4E89-9AC4-08CB38BC84BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,11 +571,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192C6B8F-1B7F-47C5-BAD5-783CF5E63148}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
